--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.347056739128759</v>
+        <v>0.500691</v>
       </c>
       <c r="H2">
-        <v>0.347056739128759</v>
+        <v>1.502073</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.7241200188267</v>
+        <v>56.98117766666667</v>
       </c>
       <c r="N2">
-        <v>38.7241200188267</v>
+        <v>170.943533</v>
       </c>
       <c r="O2">
-        <v>0.9330649108198242</v>
+        <v>0.952030123851636</v>
       </c>
       <c r="P2">
-        <v>0.9330649108198242</v>
+        <v>0.9520301238516359</v>
       </c>
       <c r="Q2">
-        <v>13.43946681936469</v>
+        <v>28.529962827101</v>
       </c>
       <c r="R2">
-        <v>13.43946681936469</v>
+        <v>256.769665443909</v>
       </c>
       <c r="S2">
-        <v>0.9330649108198242</v>
+        <v>0.952030123851636</v>
       </c>
       <c r="T2">
-        <v>0.9330649108198242</v>
+        <v>0.9520301238516359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.347056739128759</v>
+        <v>0.500691</v>
       </c>
       <c r="H3">
-        <v>0.347056739128759</v>
+        <v>1.502073</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46080732489328</v>
+        <v>2.516719</v>
       </c>
       <c r="N3">
-        <v>2.46080732489328</v>
+        <v>7.550157</v>
       </c>
       <c r="O3">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="P3">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="Q3">
-        <v>0.8540397658016263</v>
+        <v>1.260098552829</v>
       </c>
       <c r="R3">
-        <v>0.8540397658016263</v>
+        <v>11.340886975461</v>
       </c>
       <c r="S3">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="T3">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.347056739128759</v>
+        <v>0.500691</v>
       </c>
       <c r="H4">
-        <v>0.347056739128759</v>
+        <v>1.502073</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.317137056925309</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N4">
-        <v>0.317137056925309</v>
+        <v>1.063163</v>
       </c>
       <c r="O4">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="P4">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="Q4">
-        <v>0.1100645528333894</v>
+        <v>0.177438715211</v>
       </c>
       <c r="R4">
-        <v>0.1100645528333894</v>
+        <v>1.596948436899</v>
       </c>
       <c r="S4">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="T4">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
     </row>
   </sheetData>
